--- a/Catalogo_Servicios.xlsx
+++ b/Catalogo_Servicios.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EAM\IX Semestre\Compiladores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caferrerb/Dropbox/Universidad/EAM/2016-II/compiladores/mensatel/gitrepo/mensatel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="8115" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="32220" yWindow="1780" windowWidth="15300" windowHeight="14580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Portabilidad Numerica" sheetId="1" r:id="rId1"/>
@@ -244,9 +244,6 @@
     <t>/procedimientos/registrarplan</t>
   </si>
   <si>
-    <t>{{"Registrarplan":{ "numero":"3137259043","codigoplan":"1"}}</t>
-  </si>
-  <si>
     <t>/procedimientos/quitarplan</t>
   </si>
   <si>
@@ -456,11 +453,14 @@
   "P_COD": "COD-0000"
 }</t>
   </si>
+  <si>
+    <t>{"Registrarplan":{ "numero":"3137259043","codigoplan":"1"}}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -825,52 +825,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,6 +869,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,48 +1202,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F20"/>
+    <sheetView topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="4:6" ht="19" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D7" s="20" t="s">
+      <c r="F6" s="37"/>
+    </row>
+    <row r="7" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D7" s="41" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1253,8 +1253,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="20"/>
+    <row r="8" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D8" s="41"/>
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1262,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D9" s="20"/>
+    <row r="9" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D9" s="41"/>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1271,8 +1271,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D10" s="20" t="s">
+    <row r="10" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D10" s="41" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1282,8 +1282,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="20"/>
+    <row r="11" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D11" s="41"/>
       <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1291,8 +1291,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D12" s="20"/>
+    <row r="12" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D12" s="41"/>
       <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1300,132 +1300,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="20" t="s">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="20" t="s">
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="41"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="41"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="41"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="41"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="41"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="20"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="20"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="20"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="20"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="20"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="20"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="20"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="4:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="20"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="32" spans="4:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D32" s="18" t="s">
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="4:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="32" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D32" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="4:6" ht="19" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D36" s="26" t="s">
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D36" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1435,8 +1435,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D37" s="27"/>
+    <row r="37" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D37" s="21"/>
       <c r="E37" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1444,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D38" s="30" t="s">
+    <row r="38" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D38" s="38" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -1455,8 +1455,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D39" s="31"/>
+    <row r="39" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D39" s="39"/>
       <c r="E39" s="4" t="s">
         <v>2</v>
       </c>
@@ -1464,8 +1464,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D40" s="32"/>
+    <row r="40" spans="4:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="D40" s="40"/>
       <c r="E40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1473,126 +1473,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="26" t="s">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="29"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="29"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="29"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="37"/>
-    </row>
-    <row r="46" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="29"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-    </row>
-    <row r="47" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="27"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-    </row>
-    <row r="48" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="26" t="s">
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="20"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="20"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="20"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="20"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="21"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="50" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="29"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-    </row>
-    <row r="51" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="29"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-    </row>
-    <row r="52" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="29"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-    </row>
-    <row r="53" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="29"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-    </row>
-    <row r="54" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="29"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-    </row>
-    <row r="55" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="29"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="29"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-    </row>
-    <row r="57" spans="4:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="27"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-    </row>
-    <row r="59" spans="4:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="D59" s="18" t="s">
+      <c r="F49" s="32"/>
+    </row>
+    <row r="50" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="20"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="20"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="20"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="20"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="20"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+    </row>
+    <row r="55" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="20"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+    </row>
+    <row r="56" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="20"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+    </row>
+    <row r="57" spans="4:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="21"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+    </row>
+    <row r="59" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D59" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+    </row>
+    <row r="62" spans="4:6" ht="19" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F62" s="37"/>
+    </row>
+    <row r="63" spans="4:6" ht="19" x14ac:dyDescent="0.25">
       <c r="D63" s="7" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:6" ht="19" x14ac:dyDescent="0.25">
       <c r="D64" s="8" t="s">
         <v>1</v>
       </c>
@@ -1614,107 +1614,116 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="26" t="s">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F66" s="35"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="29"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="37"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D68" s="29"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="37"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D69" s="29"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="37"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D70" s="29"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="37"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="27"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="42"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D73" s="26" t="s">
+      <c r="F66" s="23"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D67" s="20"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D68" s="20"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D69" s="20"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D70" s="20"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D71" s="21"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D73" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="44"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="29"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="29"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D76" s="29"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D77" s="29"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D78" s="29"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D79" s="29"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="29"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="27"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D74" s="20"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D75" s="20"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D76" s="20"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D77" s="20"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D78" s="20"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D79" s="20"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D80" s="20"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D81" s="21"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="E66:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:D81"/>
-    <mergeCell ref="E73:F81"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E14:F20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="D4:F5"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E22:F30"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="D60:F61"/>
     <mergeCell ref="E62:F62"/>
@@ -1725,21 +1734,12 @@
     <mergeCell ref="E42:F47"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="E49:F57"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="D4:F5"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E22:F30"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E14:F20"/>
-    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="E66:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:D81"/>
+    <mergeCell ref="E73:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1750,35 +1750,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D138"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
     </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1809,127 +1809,127 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
     </row>
-    <row r="32" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="D32" s="46"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>0</v>
       </c>
@@ -1949,8 +1949,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="20" t="s">
+    <row r="34" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1960,8 +1960,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
+    <row r="35" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="41"/>
       <c r="C35" s="9" t="s">
         <v>33</v>
       </c>
@@ -1969,8 +1969,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
+    <row r="36" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="41"/>
       <c r="C36" s="9" t="s">
         <v>34</v>
       </c>
@@ -1978,8 +1978,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
+    <row r="37" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" s="41"/>
       <c r="C37" s="9" t="s">
         <v>35</v>
       </c>
@@ -1987,8 +1987,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
+    <row r="38" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="41"/>
       <c r="C38" s="9" t="s">
         <v>36</v>
       </c>
@@ -1996,162 +1996,162 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="41"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="41"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="28"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="20"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B59" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B59" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
     </row>
-    <row r="62" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="46"/>
+    </row>
+    <row r="63" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="46"/>
-    </row>
-    <row r="63" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="27"/>
-      <c r="C64" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D64" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
+    <row r="65" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -2161,152 +2161,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="27"/>
+    <row r="66" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="43"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="41"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="41"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="41"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="41"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="41"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="41"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="20" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+    </row>
+    <row r="87" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B87" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="28"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="20"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="20"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="20"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="20"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="20"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="20"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="20"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-    </row>
-    <row r="87" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B87" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
     </row>
-    <row r="90" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="46"/>
     </row>
-    <row r="91" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B92" s="26" t="s">
+    <row r="92" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B92" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="9" t="s">
@@ -2316,152 +2316,152 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B93" s="27"/>
+    <row r="93" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
       <c r="D94" s="45"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="20" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="20"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="43"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="41"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="41"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="41"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="41"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="41"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="41"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="45"/>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="28"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="20"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="20"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="20"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-    </row>
-    <row r="111" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-    </row>
-    <row r="114" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B114" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="42"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="41"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="41"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="41"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="41"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="41"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="41"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="41"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+    </row>
+    <row r="111" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+    </row>
+    <row r="114" spans="2:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="B114" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
       <c r="D116" s="45"/>
     </row>
-    <row r="117" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D117" s="46"/>
     </row>
-    <row r="118" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B118" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B119" s="26" t="s">
+    <row r="119" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B119" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
@@ -2471,8 +2471,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B120" s="27"/>
+    <row r="120" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
         <v>57</v>
       </c>
@@ -2480,146 +2480,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="20" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D122" s="21"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="20"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="20"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="21"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="20"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="21"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="20"/>
-      <c r="C126" s="21"/>
-      <c r="D126" s="21"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="20"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="20"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="43"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="41"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="41"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="41"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="41"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="41"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="41"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
       <c r="D129" s="45"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="20" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D130" s="28"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="20"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="20"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="20"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="20"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="20"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="20"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="20"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="20"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="C130" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D130" s="42"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="41"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="41"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="41"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="41"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="41"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="41"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="41"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="41"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="C122:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="C130:D138"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D116"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:B111"/>
-    <mergeCell ref="C103:D111"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="C76:D84"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="C48:D56"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C40:D46"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D5"/>
@@ -2630,6 +2590,46 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:B26"/>
     <mergeCell ref="C18:D26"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="C48:D56"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="C40:D46"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:D84"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:B111"/>
+    <mergeCell ref="C103:D111"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D116"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="C122:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:B138"/>
+    <mergeCell ref="C130:D138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2644,61 +2644,61 @@
       <selection activeCell="B9" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="46"/>
-    </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
+    <row r="8" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2706,8 +2706,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+    <row r="9" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -2717,126 +2717,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+    <row r="10" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="20"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="41"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="41"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C20" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C12:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:D28"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2850,31 +2850,31 @@
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
     </row>
-    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +2883,8 @@
       </c>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2894,8 +2894,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
+    <row r="6" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
       <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
@@ -2903,8 +2903,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
@@ -2912,8 +2912,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
+    <row r="8" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>56</v>
       </c>
@@ -2921,8 +2921,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+    <row r="9" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
       <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
@@ -2930,8 +2930,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
+    <row r="10" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
       <c r="C10" s="3" t="s">
         <v>55</v>
       </c>
@@ -2939,150 +2939,150 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="43"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="41"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="41"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="C25" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+    </row>
+    <row r="32" spans="2:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="2:4" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3106,35 +3106,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C244" sqref="C244"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
     </row>
-    <row r="5" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3143,8 +3143,8 @@
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3154,8 +3154,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3163,8 +3163,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
+    <row r="8" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -3172,8 +3172,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
+    <row r="9" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
@@ -3181,8 +3181,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
+    <row r="10" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
@@ -3190,8 +3190,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
+    <row r="11" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
       <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
@@ -3199,8 +3199,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3210,8 +3210,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
+    <row r="13" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
@@ -3219,122 +3219,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="20"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="20"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="44"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="41"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="41"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="41"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="20"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="20"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="20"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="20"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="D23" s="42"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="34" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
     </row>
-    <row r="37" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3343,8 +3343,8 @@
       </c>
       <c r="D37" s="46"/>
     </row>
-    <row r="38" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3354,8 +3354,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="29"/>
+    <row r="39" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>41</v>
       </c>
@@ -3363,8 +3363,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
+    <row r="40" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
       <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
@@ -3372,8 +3372,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
+    <row r="41" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -3383,8 +3383,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
+    <row r="42" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
         <v>5</v>
       </c>
@@ -3392,122 +3392,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="20"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="20"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="20"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="20"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="20"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="20"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="44"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="41"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="41"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="41"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="41"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="20"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="20"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="20"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="20"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="20"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="20"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="20"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="20"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="D52" s="42"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="63" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
     </row>
-    <row r="66" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
@@ -3516,8 +3516,8 @@
       </c>
       <c r="D66" s="46"/>
     </row>
-    <row r="67" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="26" t="s">
+    <row r="67" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B67" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3527,17 +3527,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B68" s="27"/>
+    <row r="68" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
       <c r="C68" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B69" s="26" t="s">
+    <row r="69" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B69" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -3547,8 +3547,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B70" s="27"/>
+    <row r="70" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
         <v>5</v>
       </c>
@@ -3556,132 +3556,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="45"/>
       <c r="C71" s="45"/>
       <c r="D71" s="45"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="20"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="20"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="20"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="20"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="20"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="20"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="44"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="41"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="41"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="41"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="41"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="41"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="41"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="20" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="28"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="20"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="20"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="20"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="20"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="20"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="20"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="20"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="20"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="D80" s="42"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="41"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="41"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="41"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="41"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="91" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B91" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
       <c r="D93" s="45"/>
     </row>
-    <row r="94" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D94" s="46"/>
     </row>
-    <row r="95" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B95" s="26" t="s">
+    <row r="95" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B95" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -3691,17 +3691,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B96" s="27"/>
+    <row r="96" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B96" s="21"/>
       <c r="C96" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B97" s="26" t="s">
+    <row r="97" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B97" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="9" t="s">
@@ -3711,8 +3711,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
+    <row r="98" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
         <v>5</v>
       </c>
@@ -3720,127 +3720,127 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
       <c r="D99" s="45"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="20" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D100" s="22"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="20"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="20"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="20"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="20"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="44"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="41"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="41"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="41"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="41"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="41"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="41"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D108" s="28"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="20"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="20"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="20"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="20"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="D108" s="42"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="41"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="41"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="41"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="41"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="41"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="41"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="41"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="41"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
     </row>
     <row r="119" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B119" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
     </row>
-    <row r="122" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D122" s="46"/>
     </row>
@@ -3855,8 +3855,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B124" s="26" t="s">
+    <row r="124" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B124" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="9" t="s">
@@ -3866,8 +3866,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B125" s="27"/>
+    <row r="125" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
         <v>5</v>
       </c>
@@ -3875,132 +3875,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="20" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="22"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="20"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="20"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="20"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="20"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="20"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="20"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" s="44"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="41"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="41"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="41"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="41"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="41"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="41"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="20" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="28" t="s">
+      <c r="C135" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="28"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="20"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="20"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="20"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="20"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="20"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="20"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="20"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="20"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="D135" s="42"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="41"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="41"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="41"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="41"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="41"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="41"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="41"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B143" s="41"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="42"/>
     </row>
     <row r="146" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B146" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="45"/>
       <c r="C147" s="45"/>
       <c r="D147" s="45"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="45"/>
       <c r="C148" s="45"/>
       <c r="D148" s="45"/>
     </row>
-    <row r="149" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D149" s="46"/>
     </row>
-    <row r="150" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B150" s="26" t="s">
+    <row r="150" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B150" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -4010,17 +4010,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B151" s="27"/>
+    <row r="151" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B151" s="21"/>
       <c r="C151" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B152" s="26" t="s">
+    <row r="152" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B152" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="9" t="s">
@@ -4030,8 +4030,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B153" s="27"/>
+    <row r="153" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B153" s="21"/>
       <c r="C153" s="9" t="s">
         <v>5</v>
       </c>
@@ -4039,132 +4039,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
       <c r="D154" s="45"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="20" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D155" s="22"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="20"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="20"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="20"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="22"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="20"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="20"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="20"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155" s="44"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="41"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="41"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="41"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="41"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="41"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="41"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="45"/>
       <c r="C162" s="45"/>
       <c r="D162" s="45"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="20" t="s">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="28" t="s">
+      <c r="C163" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D163" s="28"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="20"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="20"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="20"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="20"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="20"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="20"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="20"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="20"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="D163" s="42"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="41"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="41"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="41"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="41"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" s="41"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="41"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" s="41"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="41"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
     </row>
     <row r="174" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B174" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="45"/>
       <c r="C175" s="45"/>
       <c r="D175" s="45"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="45"/>
       <c r="C176" s="45"/>
       <c r="D176" s="45"/>
     </row>
-    <row r="177" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D177" s="46"/>
     </row>
-    <row r="178" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B178" s="26" t="s">
+    <row r="178" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B178" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -4174,17 +4174,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B179" s="27"/>
+    <row r="179" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B179" s="21"/>
       <c r="C179" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B180" s="26" t="s">
+    <row r="180" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B180" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -4194,8 +4194,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B181" s="27"/>
+    <row r="181" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B181" s="21"/>
       <c r="C181" s="9" t="s">
         <v>5</v>
       </c>
@@ -4203,127 +4203,127 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="45"/>
       <c r="C182" s="45"/>
       <c r="D182" s="45"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="20" t="s">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D183" s="22"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="20"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="20"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="20"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="20"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="20"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="20"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C183" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D183" s="44"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="41"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="41"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="41"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="44"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="41"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="41"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="44"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="41"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="45"/>
       <c r="C190" s="45"/>
       <c r="D190" s="45"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="20" t="s">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C191" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D191" s="28"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="20"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="20"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="20"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="20"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="20"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197" s="20"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="20"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="20"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
+      <c r="C191" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" s="42"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B192" s="41"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="42"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B193" s="41"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B194" s="41"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B195" s="41"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B196" s="41"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="41"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198" s="41"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B199" s="41"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
     </row>
     <row r="202" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B202" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="45"/>
       <c r="C203" s="45"/>
       <c r="D203" s="45"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="45"/>
       <c r="C204" s="45"/>
       <c r="D204" s="45"/>
     </row>
-    <row r="205" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C205" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D205" s="46"/>
     </row>
@@ -4341,7 +4341,7 @@
     <row r="207" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B207" s="16"/>
       <c r="C207" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
@@ -4350,7 +4350,7 @@
     <row r="208" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B208" s="16"/>
       <c r="C208" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>10</v>
@@ -4359,7 +4359,7 @@
     <row r="209" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B209" s="16"/>
       <c r="C209" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>10</v>
@@ -4377,14 +4377,14 @@
     <row r="211" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B211" s="15"/>
       <c r="C211" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B212" s="26" t="s">
+    <row r="212" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B212" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C212" s="9" t="s">
@@ -4394,8 +4394,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B213" s="27"/>
+    <row r="213" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B213" s="21"/>
       <c r="C213" s="9" t="s">
         <v>5</v>
       </c>
@@ -4403,132 +4403,132 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="45"/>
       <c r="C214" s="45"/>
       <c r="D214" s="45"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="20" t="s">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C215" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D215" s="22"/>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="20"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B217" s="20"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="20"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="20"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="20"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="20"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C215" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D215" s="44"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" s="41"/>
+      <c r="C216" s="44"/>
+      <c r="D216" s="44"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B217" s="41"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218" s="41"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="44"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B219" s="41"/>
+      <c r="C219" s="44"/>
+      <c r="D219" s="44"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B220" s="41"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="44"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221" s="41"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="44"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" s="45"/>
       <c r="C222" s="45"/>
       <c r="D222" s="45"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B223" s="20" t="s">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C223" s="28" t="s">
+      <c r="C223" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D223" s="28"/>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B224" s="20"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B225" s="20"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B226" s="20"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="28"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B227" s="20"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B228" s="20"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="28"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B229" s="20"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="28"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B230" s="20"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B231" s="20"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
+      <c r="D223" s="42"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B224" s="41"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="42"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B225" s="41"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B226" s="41"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="42"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227" s="41"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="42"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" s="41"/>
+      <c r="C228" s="42"/>
+      <c r="D228" s="42"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B229" s="41"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230" s="41"/>
+      <c r="C230" s="42"/>
+      <c r="D230" s="42"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B231" s="41"/>
+      <c r="C231" s="42"/>
+      <c r="D231" s="42"/>
     </row>
     <row r="234" spans="2:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B234" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="45"/>
       <c r="C235" s="45"/>
       <c r="D235" s="45"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="45"/>
       <c r="C236" s="45"/>
       <c r="D236" s="45"/>
     </row>
-    <row r="237" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" ht="19" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C237" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D237" s="46"/>
     </row>
-    <row r="238" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B238" s="26" t="s">
+    <row r="238" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B238" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C238" s="3" t="s">
@@ -4538,26 +4538,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B239" s="29"/>
+    <row r="239" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B239" s="20"/>
       <c r="C239" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B240" s="29"/>
+    <row r="240" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B240" s="20"/>
       <c r="C240" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B241" s="29"/>
+    <row r="241" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B241" s="20"/>
       <c r="C241" s="3" t="s">
         <v>54</v>
       </c>
@@ -4565,17 +4565,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B242" s="27"/>
+    <row r="242" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B242" s="21"/>
       <c r="C242" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B243" s="26" t="s">
+    <row r="243" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B243" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C243" s="9" t="s">
@@ -4585,8 +4585,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B244" s="27"/>
+    <row r="244" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B244" s="21"/>
       <c r="C244" s="9" t="s">
         <v>43</v>
       </c>
@@ -4594,117 +4594,176 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" s="45"/>
       <c r="C245" s="45"/>
       <c r="D245" s="45"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="20" t="s">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B246" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C246" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D246" s="22"/>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="20"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="22"/>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="20"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B249" s="20"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B250" s="20"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B251" s="20"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="22"/>
-    </row>
-    <row r="252" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="20"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="22"/>
-    </row>
-    <row r="253" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C246" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D246" s="44"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B247" s="41"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B248" s="41"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="44"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B249" s="41"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="44"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B250" s="41"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251" s="41"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="44"/>
+    </row>
+    <row r="252" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="41"/>
+      <c r="C252" s="44"/>
+      <c r="D252" s="44"/>
+    </row>
+    <row r="253" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="45"/>
       <c r="C253" s="45"/>
       <c r="D253" s="45"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B254" s="20" t="s">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B254" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C254" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D254" s="28"/>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B255" s="20"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="28"/>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B256" s="20"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="28"/>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B257" s="20"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B258" s="20"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B259" s="20"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B260" s="20"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B261" s="20"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B262" s="20"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="28"/>
+      <c r="C254" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" s="42"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B255" s="41"/>
+      <c r="C255" s="42"/>
+      <c r="D255" s="42"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="41"/>
+      <c r="C256" s="42"/>
+      <c r="D256" s="42"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="41"/>
+      <c r="C257" s="42"/>
+      <c r="D257" s="42"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="41"/>
+      <c r="C258" s="42"/>
+      <c r="D258" s="42"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="41"/>
+      <c r="C259" s="42"/>
+      <c r="D259" s="42"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="41"/>
+      <c r="C260" s="42"/>
+      <c r="D260" s="42"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="41"/>
+      <c r="C261" s="42"/>
+      <c r="D261" s="42"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="41"/>
+      <c r="C262" s="42"/>
+      <c r="D262" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B245:D245"/>
-    <mergeCell ref="B246:B252"/>
-    <mergeCell ref="C246:D252"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B254:B262"/>
-    <mergeCell ref="C254:D262"/>
-    <mergeCell ref="C223:D231"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="C191:D199"/>
+    <mergeCell ref="B238:B242"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B183:B189"/>
+    <mergeCell ref="C183:D189"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:B231"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:B171"/>
+    <mergeCell ref="C163:D171"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D176"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B155:B161"/>
+    <mergeCell ref="C155:D161"/>
+    <mergeCell ref="B135:B143"/>
+    <mergeCell ref="C135:D143"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B127:B133"/>
+    <mergeCell ref="C127:D133"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="C80:D88"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D93"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C44:D50"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="C52:D60"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="C23:D31"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="C72:D78"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B100:B106"/>
     <mergeCell ref="C100:D106"/>
@@ -4721,76 +4780,17 @@
     <mergeCell ref="B108:B116"/>
     <mergeCell ref="C108:D116"/>
     <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="C72:D78"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="C23:D31"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="C80:D88"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D93"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C44:D50"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="C52:D60"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="B127:B133"/>
-    <mergeCell ref="C127:D133"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:B143"/>
-    <mergeCell ref="C135:D143"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B155:B161"/>
-    <mergeCell ref="C155:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:B171"/>
-    <mergeCell ref="C163:D171"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D176"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="C191:D199"/>
-    <mergeCell ref="B238:B242"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B183:B189"/>
-    <mergeCell ref="C183:D189"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B223:B231"/>
+    <mergeCell ref="C223:D231"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B245:D245"/>
+    <mergeCell ref="B246:B252"/>
+    <mergeCell ref="C246:D252"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B254:B262"/>
+    <mergeCell ref="C254:D262"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Catalogo_Servicios.xlsx
+++ b/Catalogo_Servicios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1780" windowWidth="15300" windowHeight="14580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="32220" yWindow="1780" windowWidth="15300" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Portabilidad Numerica" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="119">
   <si>
     <t>Parametros</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>{"Registrarplan":{ "numero":"3137259043","codigoplan":"1"}}</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2638,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,22 +2763,25 @@
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="41"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="41" t="s">
         <v>9</v>
       </c>
@@ -2784,42 +2790,42 @@
       </c>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -3106,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183:D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
